--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4652.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4652.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4652</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Kuldeep Yadav</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Wrist Spin (Chinaman)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>23/06/2017</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4051</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>25/06/2017</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -588,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>30/06/2017</t>
@@ -596,7 +658,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -688,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>06/07/2017</t>
@@ -696,7 +757,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -736,7 +797,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>31/08/2017</t>
@@ -744,7 +804,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -784,7 +844,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>03/09/2017</t>
@@ -792,7 +851,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -844,7 +903,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -936,7 +995,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>24/09/2017</t>
@@ -944,7 +1002,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -984,7 +1042,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>01/10/2017</t>
@@ -992,7 +1049,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1044,7 +1101,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1096,7 +1153,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1136,7 +1193,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>17/12/2017</t>
@@ -1144,7 +1200,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1184,7 +1240,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>01/02/2018</t>
@@ -1192,7 +1247,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1232,7 +1287,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>04/02/2018</t>
@@ -1240,7 +1294,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1280,7 +1334,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>07/02/2018</t>
@@ -1288,7 +1341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1340,7 +1393,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1392,7 +1445,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1432,7 +1485,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -1440,7 +1492,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1480,7 +1532,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>12/07/2018</t>
@@ -1488,7 +1539,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1540,7 +1591,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1580,7 +1631,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>17/07/2018</t>
@@ -1588,7 +1638,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1640,7 +1690,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4196</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1680,7 +1730,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>19/09/2018</t>
@@ -1688,7 +1737,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1728,7 +1777,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>21/09/2018</t>
@@ -1736,7 +1784,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1776,7 +1824,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>23/09/2018</t>
@@ -1784,7 +1831,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1836,7 +1883,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1888,7 +1935,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1928,7 +1975,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>24/10/2018</t>
@@ -1936,7 +1982,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1988,7 +2034,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2028,7 +2074,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>29/10/2018</t>
@@ -2036,7 +2081,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2076,7 +2121,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>01/11/2018</t>
@@ -2084,7 +2128,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2136,7 +2180,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2176,7 +2220,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>15/01/2019</t>
@@ -2184,7 +2227,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2224,7 +2267,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>23/01/2019</t>
@@ -2232,7 +2274,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2272,7 +2314,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>26/01/2019</t>
@@ -2280,7 +2321,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2320,7 +2361,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>28/01/2019</t>
@@ -2328,7 +2368,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2380,7 +2420,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2420,7 +2460,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -2428,7 +2467,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2480,7 +2519,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2532,7 +2571,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2584,7 +2623,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2636,7 +2675,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2676,7 +2715,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>05/06/2019</t>
@@ -2684,7 +2722,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2724,7 +2762,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>09/06/2019</t>
@@ -2732,7 +2769,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2772,7 +2809,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>16/06/2019</t>
@@ -2780,7 +2816,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2832,7 +2868,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2884,7 +2920,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2924,7 +2960,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>30/06/2019</t>
@@ -2932,7 +2967,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2972,7 +3007,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>06/07/2019</t>
@@ -2980,7 +3014,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3020,7 +3054,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -3028,7 +3061,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3068,7 +3101,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>11/08/2019</t>
@@ -3076,7 +3108,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3116,7 +3148,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>15/12/2019</t>
@@ -3124,7 +3155,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3164,7 +3195,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>18/12/2019</t>
@@ -3172,7 +3202,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3212,7 +3242,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>22/12/2019</t>
@@ -3220,7 +3249,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3272,7 +3301,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3312,7 +3341,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>17/01/2020</t>
@@ -3320,7 +3348,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3360,7 +3388,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>19/01/2020</t>
@@ -3368,7 +3395,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3408,7 +3435,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>05/02/2020</t>
@@ -3416,7 +3442,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3456,7 +3482,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>02/12/2020</t>
@@ -3464,7 +3489,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3504,7 +3529,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -3512,7 +3536,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3552,7 +3576,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -3560,7 +3583,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3600,7 +3623,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>18/07/2021</t>
@@ -3608,7 +3630,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3648,7 +3670,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>20/07/2021</t>
@@ -3656,7 +3677,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4482</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3708,7 +3729,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3748,7 +3769,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>18/08/2022</t>
@@ -3756,7 +3776,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4637</t>
+          <t>4637</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3796,7 +3816,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>20/08/2022</t>
@@ -3804,7 +3823,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4640</t>
+          <t>4640</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3856,7 +3875,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4643</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3908,7 +3927,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4656</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3948,7 +3967,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>09/10/2022</t>
@@ -3956,7 +3974,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4657</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3996,7 +4014,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>11/10/2022</t>
@@ -4004,7 +4021,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4658</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4056,7 +4073,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4108,7 +4125,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4689</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4148,7 +4165,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>15/01/2023</t>
@@ -4156,7 +4172,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4691</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4208,7 +4224,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4248,7 +4264,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>21/01/2023</t>
@@ -4256,7 +4271,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4308,7 +4323,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4348,7 +4363,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>17/03/2023</t>
@@ -4356,7 +4370,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4408,7 +4422,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4460,7 +4474,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4499,7 +4513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4521,7 +4535,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4558,7 +4572,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4595,7 +4609,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4632,7 +4646,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4669,7 +4683,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4706,7 +4720,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4743,7 +4757,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4780,7 +4794,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4817,7 +4831,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4854,7 +4868,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4891,7 +4905,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4928,7 +4942,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4965,7 +4979,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5002,7 +5016,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5039,7 +5053,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5076,7 +5090,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5113,7 +5127,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5150,7 +5164,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5187,7 +5201,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5224,7 +5238,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5261,7 +5275,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5298,7 +5312,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5335,7 +5349,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4196</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5372,7 +5386,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5409,7 +5423,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5446,7 +5460,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5483,7 +5497,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5520,7 +5534,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5557,7 +5571,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5594,7 +5608,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5631,7 +5645,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5668,7 +5682,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5705,7 +5719,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5742,7 +5756,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5779,7 +5793,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5816,7 +5830,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5853,7 +5867,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5890,7 +5904,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5927,7 +5941,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5964,7 +5978,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6001,7 +6015,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6038,7 +6052,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6075,7 +6089,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6112,7 +6126,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6149,7 +6163,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6186,7 +6200,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6223,7 +6237,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6260,7 +6274,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6297,7 +6311,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6334,7 +6348,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6371,7 +6385,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6408,7 +6422,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6445,7 +6459,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6482,7 +6496,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6519,7 +6533,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6556,7 +6570,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6593,7 +6607,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6630,7 +6644,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6667,7 +6681,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6704,7 +6718,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6741,7 +6755,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6778,7 +6792,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6815,7 +6829,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6852,7 +6866,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4482</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6889,7 +6903,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6926,7 +6940,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4637</t>
+          <t>4637</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6963,7 +6977,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4640</t>
+          <t>4640</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7000,7 +7014,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4643</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7037,7 +7051,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4656</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7074,7 +7088,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4657</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7111,7 +7125,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4658</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7148,7 +7162,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7185,7 +7199,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4689</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7222,7 +7236,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4691</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7259,7 +7273,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7296,7 +7310,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7333,7 +7347,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -7370,7 +7384,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -7407,7 +7421,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -7444,7 +7458,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -7470,6 +7484,465 @@
       <c r="G80" t="inlineStr">
         <is>
           <t>3/56</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4637</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.57%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.78%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3.42%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.42%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4652.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4652.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7547,9 +7548,6 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7562,15 +7560,399 @@
           <t>4456</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4637</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.57%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.78%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3.42%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.42%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7578,15 +7960,14 @@
           <t>4480</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7596,17 +7977,12 @@
           <t>4482</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>10</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7614,27 +7990,14 @@
           <t>4536</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>9</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.89%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7644,17 +8007,12 @@
           <t>4637</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>9</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7662,15 +8020,14 @@
           <t>4640</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7682,13 +8039,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7698,13 +8048,6 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7712,15 +8055,14 @@
           <t>4657</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7730,15 +8072,14 @@
           <t>4658</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -7750,13 +8091,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7764,27 +8098,14 @@
           <t>4689</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>8</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.57%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -7796,13 +8117,6 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7812,13 +8126,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7826,15 +8133,14 @@
           <t>4695</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7844,27 +8150,14 @@
           <t>4697</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>9</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.78%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -7874,15 +8167,14 @@
           <t>4725</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7892,29 +8184,12 @@
           <t>4728</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.42%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7922,27 +8197,14 @@
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>9</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.42%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4652.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4652.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3067,7 +3066,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -7548,6 +7547,9 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7560,6 +7562,10 @@
           <t>4456</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7575,6 +7581,9 @@
       <c r="B4" t="n">
         <v>10</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7590,6 +7599,9 @@
       <c r="B5" t="n">
         <v>10</v>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7635,6 +7647,9 @@
       <c r="B7" t="n">
         <v>9</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7650,6 +7665,9 @@
       <c r="B8" t="n">
         <v>9</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7662,6 +7680,10 @@
           <t>4643</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7674,6 +7696,10 @@
           <t>4656</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7689,6 +7715,9 @@
       <c r="B11" t="n">
         <v>9</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7704,6 +7733,9 @@
       <c r="B12" t="n">
         <v>9</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7716,6 +7748,10 @@
           <t>4685</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7758,6 +7794,10 @@
           <t>4691</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7770,6 +7810,10 @@
           <t>4692</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7785,6 +7829,9 @@
       <c r="B17" t="n">
         <v>9</v>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7830,6 +7877,9 @@
       <c r="B19" t="n">
         <v>9</v>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7893,318 +7943,6 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4480</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4482</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4536</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4637</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4640</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4643</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4657</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4658</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4689</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4691</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>30.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4652.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4652.xlsx
@@ -7498,7 +7498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7541,12 +7541,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
+          <t>4051</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -7559,10 +7557,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -7575,12 +7575,10 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4480</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -7593,15 +7591,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4482</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7611,27 +7621,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>9</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.89%</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7641,11 +7639,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4637</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -7659,12 +7657,10 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4640</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
+          <t>4065</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -7677,12 +7673,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4643</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
@@ -7693,12 +7699,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
@@ -7709,7 +7725,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4657</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -7727,31 +7743,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4658</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>16.96%</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7761,27 +7789,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.57%</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7791,7 +7807,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4691</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -7807,10 +7823,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>4126</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -7823,7 +7841,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -7841,7 +7859,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4697</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -7857,11 +7875,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.78%</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7871,15 +7885,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4725</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>9</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.73%</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7889,27 +7915,15 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.42%</t>
-        </is>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7919,32 +7933,1260 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4732</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>9</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3.39%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4175</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4196</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4199</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2.24%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>11</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>6.25%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4220</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>16.30%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3.56%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3.38%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4310</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>11</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>10</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>6.67%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>9</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>9</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>10</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>10</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>10</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>9</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>9</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4637</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>9</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>9</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>8</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>4.57%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>9</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>9</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.78%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>9</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>9</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>3.42%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>9</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2.42%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
